--- a/Excel_Challenge_522 - Express as Sum of Consecutive Odd Numbers.xlsx
+++ b/Excel_Challenge_522 - Express as Sum of Consecutive Odd Numbers.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD48C04-62D8-4555-9C10-7D8AE9B2C12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A24EFE-105F-4E55-AEC5-B9AF6549A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Number</t>
   </si>
@@ -586,12 +611,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D74E93B9-6E11-4EC6-84AD-A3002B0E60C5}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,4 +724,369 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D90408C-A20A-416F-97F9-AE41466FDD1F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>508</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45B22BC-EA75-47B4-A879-CA99C888AA8E}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>508</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13:B19">_xlfn.LET(
+    _xlpm.n, A2:A8,
+    _xlpm.s, _xlfn.SEQUENCE(MAX(_xlpm.n) / 2),
+    _xlpm.t, _xlfn.TOROW(_xlpm.s - 1),
+    _xlfn.MAP(
+        _xlfn.XLOOKUP(_xlpm.n, _xlfn.TOCOL(_xlpm.s ^ 2 - _xlpm.t ^ 2), _xlfn.TOCOL(_xlpm.t &amp; -_xlpm.s)),
+        _xlfn.LAMBDA(_xlpm.x,
+            _xlfn.LET(
+                _xlpm.t, --_xlfn.TEXTSPLIT(_xlpm.x, "-"),
+                _xlpm.m, MAX(_xlpm.t) - _xlfn.SINGLE(_xlpm.t),
+                IF(_xlpm.m &gt; 1, _xlfn.ARRAYTOTEXT(_xlfn.SEQUENCE(_xlpm.m, , _xlfn.SINGLE(_xlpm.t) * 2 + 1, 2)), "NP")
+            )
+        )
+    )
+)</f>
+        <v>1, 3, 5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <v>5, 7, 9, 11, 13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>3, 5, 7, 9, 11, 13, 15, 17, 19, 21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>253, 255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10900E-1949-42A5-A64B-3C4F3436E531}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>508</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14:B20">_xlfn.LET(
+    _xlpm.n, A2:A8,
+    _xlpm.m, MAX(_xlpm.n / 2 - 1),
+    _xlpm.s, _xlfn.SEQUENCE(_xlpm.m),
+    _xlpm.t, _xlfn.TOROW(_xlpm.s),
+    _xlpm.w, (_xlpm.s + _xlpm.t) * (_xlpm.t + 1),
+    _xlfn.MAP(
+        _xlpm.n,
+        _xlfn.LAMBDA(_xlpm.x,
+            _xlfn.LET(
+                _xlpm.p, (_xlpm.w = _xlpm.x) * ISODD(_xlpm.s),
+                _xlpm.F, _xlfn.LAMBDA(_xlpm.x, _xlfn.TOCOL(IF(_xlpm.p, _xlpm.x, z), 3)),
+                IFERROR(
+                    _xlfn.TEXTJOIN(
+                        " | ",
+                        ,
+                        _xlfn.MAP(
+                            _xlpm.F(_xlpm.s),
+                            _xlpm.F(_xlpm.t),
+                            _xlfn.LAMBDA(_xlpm.i,_xlpm.j, _xlfn.ARRAYTOTEXT(_xlfn.SEQUENCE(_xlpm.j + 1, , , 2) + _xlpm.i - 1))
+                        )
+                    ),
+                    "NP"
+                )
+            )
+        )
+    )
+)</f>
+        <v>1, 3, 5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>5, 7, 9, 11, 13 | 13, 15, 17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>3, 5, 7, 9, 11, 13, 15, 17, 19, 21 | 15, 17, 19, 21, 23, 25 | 27, 29, 31, 33 | 59, 61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49 | 71, 73, 75, 77, 79, 81 | 111, 113, 115, 117 | 227, 229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>253, 255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_522 - Express as Sum of Consecutive Odd Numbers.xlsx
+++ b/Excel_Challenge_522 - Express as Sum of Consecutive Odd Numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A24EFE-105F-4E55-AEC5-B9AF6549A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6821E848-B543-41E2-A4B1-0C2429216534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,7 +949,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
